--- a/primers circRNA7.xlsx
+++ b/primers circRNA7.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C172F-B012-40F1-B9C6-6C244FB2DBE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="circRS7" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
   <si>
     <t>Mouse</t>
   </si>
@@ -360,12 +361,6 @@
     <t>CCCgcggccgcTGTATCCCAGCGCTCTGAAG</t>
   </si>
   <si>
-    <t>Casi entero (largo)</t>
-  </si>
-  <si>
-    <t>Casi entero (corto)</t>
-  </si>
-  <si>
     <t>7mer8 (3')</t>
   </si>
   <si>
@@ -454,13 +449,82 @@
   </si>
   <si>
     <t>HhnRNPK_rv2</t>
+  </si>
+  <si>
+    <t>mDHCR24_fw4</t>
+  </si>
+  <si>
+    <t>CCCctcgagAACAGCTGAGTCCAGACAGG</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcCCAGAACCACAGGGACATGA</t>
+  </si>
+  <si>
+    <t>Tm (ºC)</t>
+  </si>
+  <si>
+    <t>mDHCR24_rv4</t>
+  </si>
+  <si>
+    <t>mDHCR24_fw5</t>
+  </si>
+  <si>
+    <t>mDHCR24_rv5</t>
+  </si>
+  <si>
+    <t>mDHCR24_fw6</t>
+  </si>
+  <si>
+    <t>mDHCR24_rv6</t>
+  </si>
+  <si>
+    <t>CCCctcgagGGAATCAGGTTCTGGAAGGC</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcGAGTAGGCACAGTGCCTGAG</t>
+  </si>
+  <si>
+    <t>CCCgcggccgcAATCACACAGCACACATCGC</t>
+  </si>
+  <si>
+    <t>CCCctcgagGTCCTCTCTGCCATCTTCGG</t>
+  </si>
+  <si>
+    <t>1947pb (rojo)</t>
+  </si>
+  <si>
+    <t>1608pb (azul claro)</t>
+  </si>
+  <si>
+    <t>1162pb (verde)</t>
+  </si>
+  <si>
+    <t>Tª annelling</t>
+  </si>
+  <si>
+    <t>Hetero-dimerization criteria</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>ΔG &lt; -5Kcal/mole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2229pb (casi entero) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2192pb (Casi entero) </t>
+  </si>
+  <si>
+    <t>Máx: &lt; de 5-6 pb alineadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +582,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -703,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -785,6 +855,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,47 +903,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -848,13 +936,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1131,29 +1235,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>56</v>
       </c>
@@ -1172,8 +1276,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1183,8 +1287,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1296,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1206,8 +1310,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>56</v>
       </c>
@@ -1227,19 +1331,19 @@
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="60"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1247,20 +1351,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="60"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1271,8 +1375,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="54" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1283,8 +1387,8 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1293,19 +1397,19 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>29</v>
       </c>
@@ -1317,8 +1421,8 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="56"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1431,8 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="57"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -1336,11 +1440,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>31</v>
       </c>
@@ -1351,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
         <v>33</v>
@@ -1360,7 +1464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>53</v>
       </c>
@@ -1371,8 +1475,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="54" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -1382,8 +1486,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="54"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -1391,8 +1495,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="54"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -1400,8 +1504,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="54"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -1409,8 +1513,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -1420,8 +1524,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="55"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -1429,8 +1533,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -1440,8 +1544,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="50"/>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -1449,8 +1553,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="53"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>
@@ -1476,60 +1580,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="38"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>75</v>
@@ -1537,25 +1646,30 @@
       <c r="D4" s="23">
         <v>20</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="19">
+      <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="56">
+      <c r="I4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="63">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M4" s="78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>76</v>
@@ -1563,21 +1677,26 @@
       <c r="D5" s="23">
         <v>20</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="64"/>
+      <c r="M5" s="77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -1585,23 +1704,28 @@
       <c r="D6" s="23">
         <v>18</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="19">
+      <c r="E6" s="73"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="56">
+      <c r="I6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="63">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
@@ -1609,53 +1733,57 @@
       <c r="D7" s="23">
         <v>18</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1665,21 +1793,23 @@
       <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>113</v>
-      </c>
       <c r="H11" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>60</v>
       </c>
@@ -1689,19 +1819,21 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="19">
+      <c r="E12" s="74"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="19">
         <v>1</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1711,23 +1843,25 @@
       <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="19">
+      <c r="H13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>82</v>
@@ -1735,19 +1869,21 @@
       <c r="D14" s="1">
         <v>18</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>96</v>
       </c>
@@ -1757,55 +1893,61 @@
       <c r="D15" s="1">
         <v>20</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>113</v>
+      <c r="E15" s="74"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1815,23 +1957,25 @@
       <c r="D19" s="1">
         <v>22</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="E19" s="74"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="19">
         <v>1</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="I19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="I19" s="56">
+      <c r="K19" s="63">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1841,19 +1985,21 @@
       <c r="D20" s="1">
         <v>22</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E20" s="74"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1863,23 +2009,25 @@
       <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>113</v>
+      <c r="E21" s="74"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="56">
+        <v>111</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="63">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
@@ -1889,19 +2037,21 @@
       <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="64"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
@@ -1911,23 +2061,25 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="E23" s="74"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="K23" s="63" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>99</v>
       </c>
@@ -1937,59 +2089,69 @@
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E24" s="74"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="75"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
@@ -1999,21 +2161,29 @@
       <c r="D28" s="1">
         <v>20</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>113</v>
+      <c r="E28" s="45">
+        <v>60</v>
+      </c>
+      <c r="F28" s="66">
+        <v>63</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="58"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2023,19 +2193,23 @@
       <c r="D29" s="1">
         <v>20</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="E29" s="45">
+        <v>63</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="67"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2043,21 +2217,27 @@
         <v>102</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>102</v>
+      <c r="E30" s="45"/>
+      <c r="F30" s="66">
+        <v>63</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2067,145 +2247,386 @@
       <c r="D31" s="1">
         <v>20</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="19">
+      <c r="E31" s="45">
+        <v>61</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="67"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+    </row>
+    <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+      <c r="E37" s="45">
+        <v>61</v>
+      </c>
+      <c r="F37" s="66">
+        <v>64</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="43">
+        <v>2</v>
+      </c>
+      <c r="K37" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="46">
+        <v>61</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="43">
+        <v>2</v>
+      </c>
+      <c r="K38" s="67"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="74">
+        <v>60</v>
+      </c>
+      <c r="F39" s="66">
+        <v>63</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+      <c r="E40" s="74">
+        <v>62</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="67"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="50">
+        <v>20</v>
+      </c>
+      <c r="E41" s="76">
+        <v>62</v>
+      </c>
+      <c r="F41" s="66">
+        <v>64</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="47">
+        <v>1</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+      <c r="E42" s="45">
+        <v>61</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="67"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="72"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="20"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I28:I29"/>
+  <mergeCells count="34">
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/primers circRNA7.xlsx
+++ b/primers circRNA7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C172F-B012-40F1-B9C6-6C244FB2DBE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F10079-B9D5-4A72-96CC-AFA5677929A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
   <si>
     <t>Mouse</t>
   </si>
@@ -519,12 +519,27 @@
   <si>
     <t>Máx: &lt; de 5-6 pb alineadas</t>
   </si>
+  <si>
+    <t>mSC5D 3'UTR completo</t>
+  </si>
+  <si>
+    <t>fw3 - rv1</t>
+  </si>
+  <si>
+    <t>fw3 - rv2</t>
+  </si>
+  <si>
+    <t>Tª annelling (ºC)</t>
+  </si>
+  <si>
+    <t>64/63</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +603,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -773,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -840,9 +868,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,9 +875,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,9 +892,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,51 +946,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,11 +1320,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1277,7 +1346,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1288,7 +1357,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1366,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1311,7 +1380,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1332,18 +1401,18 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1352,11 +1421,11 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1364,7 +1433,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1445,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="56" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1388,7 +1457,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1491,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1501,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1545,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -1487,7 +1556,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="54"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -1496,7 +1565,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="54"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -1505,7 +1574,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="54"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -1514,7 +1583,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -1525,7 +1594,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -1534,7 +1603,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="53" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -1545,7 +1614,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="52"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -1554,7 +1623,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="53"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>
@@ -1581,32 +1650,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="38"/>
+    <col min="5" max="5" width="11.42578125" style="37"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1618,9 +1688,13 @@
       <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="39" t="s">
+      <c r="E3" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -1646,9 +1720,13 @@
       <c r="D4" s="23">
         <v>20</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="68" t="s">
+      <c r="E4" s="47">
+        <v>64</v>
+      </c>
+      <c r="F4" s="78">
+        <v>67</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1660,10 +1738,10 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="72">
         <v>2</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="52" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1677,9 +1755,11 @@
       <c r="D5" s="23">
         <v>20</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="68"/>
+      <c r="E5" s="47">
+        <v>64</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1689,8 +1769,8 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="M5" s="77" t="s">
+      <c r="K5" s="73"/>
+      <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1704,9 +1784,13 @@
       <c r="D6" s="23">
         <v>18</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="68"/>
+      <c r="E6" s="47">
+        <v>61</v>
+      </c>
+      <c r="F6" s="78">
+        <v>64</v>
+      </c>
+      <c r="G6" s="67"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1716,7 +1800,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="72">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1733,9 +1817,11 @@
       <c r="D7" s="23">
         <v>18</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="68"/>
+      <c r="E7" s="47">
+        <v>62</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1745,15 +1831,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="64"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1765,9 +1851,13 @@
       <c r="D10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="39" t="s">
+      <c r="E10" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -1793,9 +1883,13 @@
       <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="71" t="s">
+      <c r="E11" s="48">
+        <v>61</v>
+      </c>
+      <c r="F11" s="65">
+        <v>64</v>
+      </c>
+      <c r="G11" s="70" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1807,10 +1901,10 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="63"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1819,9 +1913,11 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="71"/>
+      <c r="E12" s="48">
+        <v>61</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1831,93 +1927,103 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="64"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="83">
         <v>20</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="71" t="s">
+      <c r="E13" s="84">
+        <v>58</v>
+      </c>
+      <c r="F13" s="85">
+        <v>61</v>
+      </c>
+      <c r="G13" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="87">
         <v>1</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="56"/>
+      <c r="I13" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="83">
         <v>18</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="19" t="s">
+      <c r="E14" s="84">
+        <v>60</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="57"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="35">
         <v>20</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="40" t="s">
+      <c r="E15" s="81">
+        <v>62</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="65" t="s">
+      <c r="H15" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="17" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>72</v>
       </c>
@@ -1927,11 +2033,13 @@
       <c r="D18" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="39" t="s">
+      <c r="F18" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="24" t="s">
@@ -1946,8 +2054,14 @@
       <c r="K18" s="24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1957,9 +2071,13 @@
       <c r="D19" s="1">
         <v>22</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="68" t="s">
+      <c r="E19" s="48">
+        <v>61</v>
+      </c>
+      <c r="F19" s="65">
+        <v>63</v>
+      </c>
+      <c r="G19" s="67" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -1971,11 +2089,17 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="72">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="37">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1985,9 +2109,11 @@
       <c r="D20" s="1">
         <v>22</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="48">
+        <v>60</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -1997,9 +2123,15 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="64"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="73"/>
+      <c r="M20" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" s="37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -2009,9 +2141,13 @@
       <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="68" t="s">
+      <c r="E21" s="48">
+        <v>61</v>
+      </c>
+      <c r="F21" s="65">
+        <v>64</v>
+      </c>
+      <c r="G21" s="67" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2023,11 +2159,11 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="72">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
@@ -2037,9 +2173,11 @@
       <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="68"/>
+      <c r="E22" s="48">
+        <v>62</v>
+      </c>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2049,9 +2187,9 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="64"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="73"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2061,9 +2199,13 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="68" t="s">
+      <c r="E23" s="48">
+        <v>60</v>
+      </c>
+      <c r="F23" s="65">
+        <v>63</v>
+      </c>
+      <c r="G23" s="67" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2075,11 +2217,11 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2089,9 +2231,11 @@
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="68"/>
+      <c r="E24" s="48">
+        <v>62</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2101,25 +2245,25 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="64"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="73"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="75"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="65" t="s">
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>73</v>
       </c>
@@ -2129,13 +2273,13 @@
       <c r="D27" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H27" s="24" t="s">
@@ -2151,7 +2295,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
@@ -2161,13 +2305,13 @@
       <c r="D28" s="1">
         <v>20</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="65">
         <v>63</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="68" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2179,11 +2323,11 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2193,11 +2337,11 @@
       <c r="D29" s="1">
         <v>20</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="70"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2207,9 +2351,9 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2217,11 +2361,11 @@
         <v>102</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="66">
+      <c r="E30" s="43"/>
+      <c r="F30" s="65">
         <v>63</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="68" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2233,11 +2377,11 @@
       <c r="J30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="66">
+      <c r="K30" s="65">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2247,11 +2391,11 @@
       <c r="D31" s="1">
         <v>20</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="43">
         <v>61</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="19">
         <v>1</v>
       </c>
@@ -2261,18 +2405,18 @@
       <c r="J31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="75"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="14"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="20"/>
@@ -2284,12 +2428,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="65" t="s">
+      <c r="H35" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2301,13 +2445,13 @@
       <c r="D36" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H36" s="24" t="s">
@@ -2333,25 +2477,25 @@
       <c r="D37" s="1">
         <v>20</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="65">
         <v>64</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="43">
+      <c r="H37" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="66">
+      <c r="K37" s="65">
         <v>3</v>
       </c>
     </row>
@@ -2365,21 +2509,21 @@
       <c r="D38" s="1">
         <v>20</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="43">
+      <c r="F38" s="66"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="67"/>
+      <c r="K38" s="66"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2391,25 +2535,25 @@
       <c r="D39" s="1">
         <v>20</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="65">
         <v>63</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="K39" s="66">
+      <c r="H39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="65">
         <v>2</v>
       </c>
     </row>
@@ -2423,21 +2567,21 @@
       <c r="D40" s="1">
         <v>20</v>
       </c>
-      <c r="E40" s="74">
+      <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="J40" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="K40" s="67"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2446,28 +2590,28 @@
       <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="46">
         <v>20</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="65">
         <v>64</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="45">
         <v>1</v>
       </c>
-      <c r="I41" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41" s="66">
+      <c r="I41" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="65">
         <v>3</v>
       </c>
     </row>
@@ -2481,29 +2625,29 @@
       <c r="D42" s="1">
         <v>20</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="K42" s="67"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="66"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
@@ -2515,9 +2659,13 @@
       <c r="D47" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="39" t="s">
+      <c r="E47" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H47" s="24" t="s">
@@ -2539,10 +2687,10 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2553,9 +2701,9 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2567,10 +2715,10 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2581,27 +2729,28 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
+  <mergeCells count="41">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H17:K17"/>
@@ -2615,16 +2764,22 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/primers circRNA7.xlsx
+++ b/primers circRNA7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F10079-B9D5-4A72-96CC-AFA5677929A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6D20E5-D1FC-4584-9E59-9CC6AE10A906}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="166">
   <si>
     <t>Mouse</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>64/63</t>
+  </si>
+  <si>
+    <t>3644pb (negro + negro)</t>
+  </si>
+  <si>
+    <t>3377pb (negro + naranja)</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -909,69 +915,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -980,12 +923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,33 +934,103 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,11 +1327,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1346,7 +1353,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1357,7 +1364,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1373,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="69" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1380,7 +1387,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1408,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="74" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -1412,7 +1419,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1428,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1440,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1445,7 +1452,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="69" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1457,7 +1464,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1498,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1508,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1552,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="69" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -1556,7 +1563,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1572,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +1581,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="17" t="s">
         <v>41</v>
       </c>
@@ -1583,7 +1590,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="70" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -1594,7 +1601,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
@@ -1603,7 +1610,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="66" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -1614,7 +1621,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
@@ -1623,7 +1630,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="55"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="17" t="s">
         <v>51</v>
       </c>
@@ -1650,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:N51"/>
+  <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,12 +1678,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1688,10 +1695,10 @@
       <c r="D3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G3" s="38" t="s">
@@ -1723,10 +1730,10 @@
       <c r="E4" s="47">
         <v>64</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="90">
         <v>67</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="85" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19">
@@ -1738,7 +1745,7 @@
       <c r="J4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="80">
         <v>2</v>
       </c>
       <c r="M4" s="52" t="s">
@@ -1758,8 +1765,8 @@
       <c r="E5" s="47">
         <v>64</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="67"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
@@ -1769,7 +1776,7 @@
       <c r="J5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="81"/>
       <c r="M5" s="51" t="s">
         <v>155</v>
       </c>
@@ -1787,10 +1794,10 @@
       <c r="E6" s="47">
         <v>61</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="90">
         <v>64</v>
       </c>
-      <c r="G6" s="67"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="19">
         <v>1</v>
       </c>
@@ -1800,7 +1807,7 @@
       <c r="J6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="80">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -1820,8 +1827,8 @@
       <c r="E7" s="47">
         <v>62</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="67"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="19" t="s">
         <v>111</v>
       </c>
@@ -1831,15 +1838,15 @@
       <c r="J7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="73"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="9" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -1851,10 +1858,10 @@
       <c r="D10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -1886,10 +1893,10 @@
       <c r="E11" s="48">
         <v>61</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="78">
         <v>64</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="88" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="19" t="s">
@@ -1901,10 +1908,10 @@
       <c r="J11" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="72"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1916,8 +1923,8 @@
       <c r="E12" s="48">
         <v>61</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="70"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="19">
         <v>1</v>
       </c>
@@ -1927,103 +1934,103 @@
       <c r="J12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="73"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="60">
         <v>20</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="61">
         <v>58</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="92">
         <v>61</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="62">
         <v>1</v>
       </c>
-      <c r="I13" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="88"/>
+      <c r="I13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="60">
         <v>18</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="61">
         <v>60</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="87" t="s">
+      <c r="F14" s="93"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="90"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="63" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="35">
         <v>20</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="58">
         <v>62</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="82" t="s">
+      <c r="H15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="59" t="s">
         <v>111</v>
       </c>
       <c r="K15" s="35"/>
     </row>
-    <row r="17" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="71" t="s">
+    <row r="17" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>72</v>
       </c>
@@ -2033,10 +2040,10 @@
       <c r="D18" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -2054,14 +2061,17 @@
       <c r="K18" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="M18" s="75" t="s">
+      <c r="M18" s="54" t="s">
         <v>159</v>
       </c>
       <c r="N18" s="52" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
@@ -2074,10 +2084,10 @@
       <c r="E19" s="48">
         <v>61</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="78">
         <v>63</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="85" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="19">
@@ -2089,7 +2099,7 @@
       <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="80">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2098,8 +2108,11 @@
       <c r="N19" s="37">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
@@ -2112,8 +2125,8 @@
       <c r="E20" s="48">
         <v>60</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="19" t="s">
         <v>111</v>
       </c>
@@ -2123,15 +2136,18 @@
       <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="73"/>
-      <c r="M20" s="74" t="s">
+      <c r="K20" s="81"/>
+      <c r="M20" s="53" t="s">
         <v>161</v>
       </c>
       <c r="N20" s="37">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -2144,10 +2160,10 @@
       <c r="E21" s="48">
         <v>61</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="78">
         <v>64</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="85" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2159,11 +2175,11 @@
       <c r="J21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="80">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
@@ -2176,8 +2192,8 @@
       <c r="E22" s="48">
         <v>62</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2187,9 +2203,9 @@
       <c r="J22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="73"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2202,10 +2218,10 @@
       <c r="E23" s="48">
         <v>60</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="78">
         <v>63</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="85" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="19" t="s">
@@ -2217,11 +2233,11 @@
       <c r="J23" s="19">
         <v>1</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2234,8 +2250,8 @@
       <c r="E24" s="48">
         <v>62</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2245,9 +2261,9 @@
       <c r="J24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="73"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2255,15 +2271,15 @@
       <c r="F25" s="14"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="71" t="s">
+    <row r="26" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>73</v>
       </c>
@@ -2273,10 +2289,10 @@
       <c r="D27" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G27" s="38" t="s">
@@ -2295,7 +2311,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
@@ -2308,10 +2324,10 @@
       <c r="E28" s="43">
         <v>60</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="78">
         <v>63</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="86" t="s">
         <v>156</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -2323,11 +2339,11 @@
       <c r="J28" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2340,8 +2356,8 @@
       <c r="E29" s="43">
         <v>63</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="19" t="s">
         <v>111</v>
       </c>
@@ -2351,9 +2367,9 @@
       <c r="J29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="66"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2362,10 +2378,10 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="65">
+      <c r="F30" s="78">
         <v>63</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="86" t="s">
         <v>157</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2377,11 +2393,11 @@
       <c r="J30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2394,8 +2410,8 @@
       <c r="E31" s="43">
         <v>61</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="69"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="19">
         <v>1</v>
       </c>
@@ -2405,9 +2421,9 @@
       <c r="J31" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="66"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2428,12 +2444,12 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
     </row>
     <row r="36" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2445,10 +2461,10 @@
       <c r="D36" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="77" t="s">
+      <c r="F36" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G36" s="38" t="s">
@@ -2480,10 +2496,10 @@
       <c r="E37" s="43">
         <v>61</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="78">
         <v>64</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="80" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -2495,7 +2511,7 @@
       <c r="J37" s="41">
         <v>2</v>
       </c>
-      <c r="K37" s="65">
+      <c r="K37" s="78">
         <v>3</v>
       </c>
     </row>
@@ -2512,8 +2528,8 @@
       <c r="E38" s="44">
         <v>61</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="73"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="41" t="s">
         <v>111</v>
       </c>
@@ -2523,7 +2539,7 @@
       <c r="J38" s="41">
         <v>2</v>
       </c>
-      <c r="K38" s="66"/>
+      <c r="K38" s="79"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
@@ -2538,10 +2554,10 @@
       <c r="E39" s="48">
         <v>60</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="78">
         <v>63</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="71" t="s">
         <v>151</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -2553,7 +2569,7 @@
       <c r="J39" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="65">
+      <c r="K39" s="78">
         <v>2</v>
       </c>
     </row>
@@ -2570,8 +2586,8 @@
       <c r="E40" s="48">
         <v>62</v>
       </c>
-      <c r="F40" s="66"/>
-      <c r="G40" s="59"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="72"/>
       <c r="H40" s="45" t="s">
         <v>111</v>
       </c>
@@ -2581,7 +2597,7 @@
       <c r="J40" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="66"/>
+      <c r="K40" s="79"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -2596,10 +2612,10 @@
       <c r="E41" s="50">
         <v>62</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="78">
         <v>64</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="80" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="45">
@@ -2611,7 +2627,7 @@
       <c r="J41" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="65">
+      <c r="K41" s="78">
         <v>3</v>
       </c>
     </row>
@@ -2628,8 +2644,8 @@
       <c r="E42" s="43">
         <v>61</v>
       </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="73"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="45" t="s">
         <v>111</v>
       </c>
@@ -2639,15 +2655,15 @@
       <c r="J42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="66"/>
+      <c r="K42" s="79"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
@@ -2659,10 +2675,10 @@
       <c r="D47" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G47" s="38" t="s">
@@ -2739,18 +2755,19 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H17:K17"/>
@@ -2764,22 +2781,21 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
